--- a/biology/Botanique/Bataceae/Bataceae.xlsx
+++ b/biology/Botanique/Bataceae/Bataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Batacées (maintenant Bataceae, anciennement Batidaceae) est une famille de plantes dicotylédones qui ne comprend qu'un seul genre: Batis.
 Ce sont des buissons de plantes succulentes des rivages maritimes, halophiles, des zones tropicales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Batis qui est la latinisation du grec ancien βάτης / batis, « celui qui marche ou recouvre »[1], probablement en référence à la nature envahissante de cet arbuste. Cette famille devrait être appelée « Batidaceae », mais le nom incorrect « Bataceae » a été conservé[note 1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Batis qui est la latinisation du grec ancien βάτης / batis, « celui qui marche ou recouvre », probablement en référence à la nature envahissante de cet arbuste. Cette famille devrait être appelée « Batidaceae », mais le nom incorrect « Bataceae » a été conservé[note 1]. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille était placée dans l'ordre des Batales, ordre qui n'existe plus dans la classification phylogénétique qui la place dans l'ordre des Brassicales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille était placée dans l'ordre des Batales, ordre qui n'existe plus dans la classification phylogénétique qui la place dans l'ordre des Brassicales.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010)[3], Angiosperm Phylogeny Website                        (15 juin 2010)[4], NCBI  (15 juin 2010)[5] et ITIS      (15 juin 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010), Angiosperm Phylogeny Website                        (15 juin 2010), NCBI  (15 juin 2010) et ITIS      (15 juin 2010) :
 genre Batis P.Browne (1756)</t>
         </is>
       </c>
@@ -605,13 +623,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 juin 2010) :
 genre Batis P.Browne (1756)
 Batis argillicola P.Royen, Nova Guinea (1956)
 Batis maritima L., Syst. Nat. ed. 10 (1759)
-Selon NCBI  (15 juin 2010)[5] :
+Selon NCBI  (15 juin 2010) :
 genre Batis
 Batis maritima</t>
         </is>
